--- a/tools/baidu-qianxi/move_out/上海.xlsx
+++ b/tools/baidu-qianxi/move_out/上海.xlsx
@@ -3153,12 +3153,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>广州市</t>
+          <t>宜春市</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>广东省</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="D52" t="n">
@@ -3171,12 +3171,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>宜春市</t>
+          <t>广州市</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>江西省</t>
+          <t>广东省</t>
         </is>
       </c>
       <c r="D53" t="n">
@@ -26769,12 +26769,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>镇江市</t>
+          <t>宿州市</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>江苏省</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="D38" t="n">
@@ -26787,12 +26787,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>宿州市</t>
+          <t>镇江市</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>安徽省</t>
+          <t>江苏省</t>
         </is>
       </c>
       <c r="D39" t="n">
@@ -27111,12 +27111,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>天津市</t>
+          <t>长沙市</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>天津市</t>
+          <t>湖南省</t>
         </is>
       </c>
       <c r="D57" t="n">
@@ -27129,12 +27129,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>长沙市</t>
+          <t>天津市</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>湖南省</t>
+          <t>天津市</t>
         </is>
       </c>
       <c r="D58" t="n">
@@ -27255,7 +27255,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>淮北市</t>
+          <t>马鞍山市</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -27273,7 +27273,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>马鞍山市</t>
+          <t>淮北市</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -27381,12 +27381,12 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>抚州市</t>
+          <t>绵阳市</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>江西省</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="D72" t="n">
@@ -27399,12 +27399,12 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>东莞市</t>
+          <t>抚州市</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>广东省</t>
+          <t>江西省</t>
         </is>
       </c>
       <c r="D73" t="n">
@@ -27417,12 +27417,12 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>绵阳市</t>
+          <t>东莞市</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>四川省</t>
+          <t>广东省</t>
         </is>
       </c>
       <c r="D74" t="n">
@@ -27525,12 +27525,12 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>西宁市</t>
+          <t>济宁市</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>青海省</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="D80" t="n">
@@ -27543,12 +27543,12 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>济宁市</t>
+          <t>西宁市</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>青海省</t>
         </is>
       </c>
       <c r="D81" t="n">
@@ -27561,12 +27561,12 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>新乡市</t>
+          <t>菏泽市</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="D82" t="n">
@@ -27579,12 +27579,12 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>菏泽市</t>
+          <t>新乡市</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D83" t="n">
@@ -27615,12 +27615,12 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>铜陵市</t>
+          <t>开封市</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>安徽省</t>
+          <t>河南省</t>
         </is>
       </c>
       <c r="D85" t="n">
@@ -27633,12 +27633,12 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>开封市</t>
+          <t>南平市</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>福建省</t>
         </is>
       </c>
       <c r="D86" t="n">
@@ -27651,12 +27651,12 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>南平市</t>
+          <t>铜陵市</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>福建省</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="D87" t="n">
@@ -27705,12 +27705,12 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>烟台市</t>
+          <t>南充市</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>山东省</t>
+          <t>四川省</t>
         </is>
       </c>
       <c r="D90" t="n">
@@ -27723,12 +27723,12 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>南充市</t>
+          <t>银川市</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>四川省</t>
+          <t>宁夏回族自治区</t>
         </is>
       </c>
       <c r="D91" t="n">
@@ -27741,12 +27741,12 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>银川市</t>
+          <t>烟台市</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>宁夏回族自治区</t>
+          <t>山东省</t>
         </is>
       </c>
       <c r="D92" t="n">
@@ -27759,12 +27759,12 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>桂林市</t>
+          <t>丽江市</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>广西壮族自治区</t>
+          <t>云南省</t>
         </is>
       </c>
       <c r="D93" t="n">
@@ -27777,12 +27777,12 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>丽江市</t>
+          <t>桂林市</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>云南省</t>
+          <t>广西壮族自治区</t>
         </is>
       </c>
       <c r="D94" t="n">
@@ -27795,12 +27795,12 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>池州市</t>
+          <t>湛江市</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>安徽省</t>
+          <t>广东省</t>
         </is>
       </c>
       <c r="D95" t="n">
@@ -27813,12 +27813,12 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>湛江市</t>
+          <t>池州市</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>广东省</t>
+          <t>安徽省</t>
         </is>
       </c>
       <c r="D96" t="n">
@@ -39405,12 +39405,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>舟山市</t>
+          <t>深圳市</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>浙江省</t>
+          <t>广东省</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -39423,12 +39423,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>深圳市</t>
+          <t>舟山市</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>广东省</t>
+          <t>浙江省</t>
         </is>
       </c>
       <c r="D25" t="n">
@@ -40791,12 +40791,12 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>新乡市</t>
+          <t>咸宁市</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>河南省</t>
+          <t>湖北省</t>
         </is>
       </c>
       <c r="D101" t="n">
